--- a/knowledge/proprietary/test-folder/test-excel-file-from-folder.xlsx
+++ b/knowledge/proprietary/test-folder/test-excel-file-from-folder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charnould/GitHub/pierre/knowledge/proprietary/test-folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474786E3-3F4A-5544-A652-0AAC34B1A58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ABFBA0-D0FA-5445-9526-2784338F0939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CBB88DEE-1036-475E-A925-BEA641FFA437}"/>
+    <workbookView xWindow="1100" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB88DEE-1036-475E-A925-BEA641FFA437}"/>
   </bookViews>
   <sheets>
     <sheet name="Astreintes 2024" sheetId="5" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>DOS SANTOS</t>
   </si>
   <si>
-    <t>RACINE</t>
-  </si>
-  <si>
     <t>GAUTHIER</t>
   </si>
   <si>
@@ -123,18 +120,12 @@
     <t>Gustave FLAUBERT remplace Anny ERNAUX du 7/11 à 9h au 08/11 à 9h</t>
   </si>
   <si>
-    <t>Jean RACINE</t>
-  </si>
-  <si>
     <t>Jean-Baptiste POCQUELIN</t>
   </si>
   <si>
     <t>Emile ZOLA uniquement le 16 mai à la place de Jean-Baptiste POCQUELIN</t>
   </si>
   <si>
-    <t>Jean-Baptiste POCQUELIN remplace Jean RACINE le 30/09</t>
-  </si>
-  <si>
     <t>Nassim NICHOLAS TALEB</t>
   </si>
   <si>
@@ -159,96 +150,105 @@
     <t>Anne MORATY</t>
   </si>
   <si>
+    <t>BEROUTY</t>
+  </si>
+  <si>
+    <t>DAGENAUX</t>
+  </si>
+  <si>
+    <t>FONTANIL</t>
+  </si>
+  <si>
+    <t>PERNEAUX</t>
+  </si>
+  <si>
+    <t>BOULIL</t>
+  </si>
+  <si>
+    <t>KADRATO</t>
+  </si>
+  <si>
+    <t>SAMARI</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ALMA</t>
+  </si>
+  <si>
+    <t>COURERT</t>
+  </si>
+  <si>
+    <t>DURANDIL</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>KUMBARE</t>
+  </si>
+  <si>
+    <t>SABLIER</t>
+  </si>
+  <si>
+    <t>SILAROT</t>
+  </si>
+  <si>
+    <t>BELGRADE</t>
+  </si>
+  <si>
+    <t>MANSART</t>
+  </si>
+  <si>
+    <t>RENOULT</t>
+  </si>
+  <si>
+    <t>VOLTRA</t>
+  </si>
+  <si>
+    <t>MADERE</t>
+  </si>
+  <si>
+    <t>BEGEOT</t>
+  </si>
+  <si>
+    <t>ROUGET</t>
+  </si>
+  <si>
+    <t>CORRERE</t>
+  </si>
+  <si>
+    <t>VERLANGUE</t>
+  </si>
+  <si>
+    <t>PIERRAT</t>
+  </si>
+  <si>
+    <t>CREPES</t>
+  </si>
+  <si>
+    <t>ZOULOU</t>
+  </si>
+  <si>
+    <t>LORIDANT</t>
+  </si>
+  <si>
+    <t>SARIDOT</t>
+  </si>
+  <si>
+    <t>Jean ROUX</t>
+  </si>
+  <si>
+    <t>ROUX</t>
+  </si>
+  <si>
+    <t>Jean-Baptiste POCQUELIN remplace Jean ROUX le 30/09</t>
+  </si>
+  <si>
     <t>Emile ZOLA du 27/12 au 30/12
-Jean RACINE du 30/12 au 02/01
+Jean ROUX du 30/12 au 02/01
 Anny ERNAUX du 02/01 au 03/01</t>
-  </si>
-  <si>
-    <t>BEROUTY</t>
-  </si>
-  <si>
-    <t>DAGENAUX</t>
-  </si>
-  <si>
-    <t>FONTANIL</t>
-  </si>
-  <si>
-    <t>PERNEAUX</t>
-  </si>
-  <si>
-    <t>BOULIL</t>
-  </si>
-  <si>
-    <t>KADRATO</t>
-  </si>
-  <si>
-    <t>SAMARI</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ALMA</t>
-  </si>
-  <si>
-    <t>COURERT</t>
-  </si>
-  <si>
-    <t>DURANDIL</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>KUMBARE</t>
-  </si>
-  <si>
-    <t>SABLIER</t>
-  </si>
-  <si>
-    <t>SILAROT</t>
-  </si>
-  <si>
-    <t>BELGRADE</t>
-  </si>
-  <si>
-    <t>MANSART</t>
-  </si>
-  <si>
-    <t>RENOULT</t>
-  </si>
-  <si>
-    <t>VOLTRA</t>
-  </si>
-  <si>
-    <t>MADERE</t>
-  </si>
-  <si>
-    <t>BEGEOT</t>
-  </si>
-  <si>
-    <t>ROUGET</t>
-  </si>
-  <si>
-    <t>CORRERE</t>
-  </si>
-  <si>
-    <t>VERLANGUE</t>
-  </si>
-  <si>
-    <t>PIERRAT</t>
-  </si>
-  <si>
-    <t>CREPES</t>
-  </si>
-  <si>
-    <t>ZOULOU</t>
-  </si>
-  <si>
-    <t>LORIDANT</t>
-  </si>
-  <si>
-    <t>SARIDOT</t>
   </si>
 </sst>
 </file>
@@ -376,34 +376,34 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -412,20 +412,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,8 +769,8 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="B3:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -790,26 +790,26 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="19"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="20"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
@@ -836,7 +836,7 @@
       <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -851,21 +851,21 @@
         <v>45299</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
@@ -878,21 +878,21 @@
         <v>45306</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
@@ -905,21 +905,21 @@
         <v>45313</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
@@ -932,21 +932,21 @@
         <v>45320</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
@@ -959,21 +959,21 @@
         <v>45327</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
@@ -986,21 +986,21 @@
         <v>45334</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
@@ -1013,21 +1013,21 @@
         <v>45341</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
@@ -1040,21 +1040,21 @@
         <v>45348</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
@@ -1067,21 +1067,21 @@
         <v>45355</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
@@ -1094,21 +1094,21 @@
         <v>45362</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
@@ -1121,21 +1121,21 @@
         <v>45369</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
@@ -1148,21 +1148,21 @@
         <v>45010</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
@@ -1175,21 +1175,21 @@
         <v>45383</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="H18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
@@ -1202,21 +1202,21 @@
         <v>45390</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
@@ -1232,18 +1232,18 @@
         <v>12</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
@@ -1256,21 +1256,21 @@
         <v>45404</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
@@ -1283,21 +1283,21 @@
         <v>45411</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="I22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
@@ -1310,21 +1310,21 @@
         <v>45418</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
@@ -1337,19 +1337,19 @@
         <v>45425</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
@@ -1365,19 +1365,19 @@
         <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1391,21 +1391,21 @@
         <v>45439</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
@@ -1418,21 +1418,21 @@
         <v>45446</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="I27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
@@ -1445,21 +1445,21 @@
         <v>45453</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
@@ -1472,21 +1472,21 @@
         <v>45460</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
@@ -1499,21 +1499,21 @@
         <v>45467</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
@@ -1526,21 +1526,21 @@
         <v>45474</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
@@ -1553,22 +1553,22 @@
         <v>45481</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1582,22 +1582,22 @@
         <v>45488</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1611,22 +1611,22 @@
         <v>45495</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1640,21 +1640,21 @@
         <v>45502</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
@@ -1667,21 +1667,21 @@
         <v>45509</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
@@ -1694,21 +1694,21 @@
         <v>45516</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
@@ -1721,21 +1721,21 @@
         <v>45523</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J38" s="18"/>
     </row>
     <row r="39" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
@@ -1748,21 +1748,21 @@
         <v>45530</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
@@ -1775,21 +1775,21 @@
         <v>45537</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J40" s="18"/>
     </row>
     <row r="41" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="5">
@@ -1802,21 +1802,21 @@
         <v>45544</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
@@ -1829,21 +1829,21 @@
         <v>45551</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5">
@@ -1856,21 +1856,21 @@
         <v>45558</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J43" s="18"/>
     </row>
     <row r="44" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="5">
@@ -1883,22 +1883,22 @@
         <v>45565</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="I44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1912,22 +1912,22 @@
         <v>45572</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>31</v>
+        <v>66</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,21 +1941,21 @@
         <v>45579</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="J46" s="18"/>
     </row>
     <row r="47" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="5">
@@ -1968,21 +1968,21 @@
         <v>45586</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5">
@@ -1995,21 +1995,21 @@
         <v>45593</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J48" s="18"/>
     </row>
     <row r="49" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="5">
@@ -2022,21 +2022,21 @@
         <v>45596</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J49" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="J49" s="18"/>
     </row>
     <row r="50" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5">
@@ -2049,22 +2049,22 @@
         <v>45604</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="19" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J50" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2078,21 +2078,21 @@
         <v>45611</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5">
@@ -2105,21 +2105,21 @@
         <v>45618</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5">
@@ -2132,21 +2132,21 @@
         <v>45625</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="5">
@@ -2159,22 +2159,22 @@
         <v>45632</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="J54" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,21 +2188,21 @@
         <v>45639</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J55" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5">
@@ -2215,21 +2215,21 @@
         <v>45646</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J56" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="5">
@@ -2242,21 +2242,21 @@
         <v>45653</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="H57" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="J57" s="18"/>
     </row>
     <row r="58" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="5">
@@ -2269,21 +2269,21 @@
         <v>45660</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="19"/>
+        <v>69</v>
+      </c>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
@@ -2310,8 +2310,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2326,31 +2326,31 @@
   <sheetData>
     <row r="3" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="19"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="20"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
@@ -2377,7 +2377,7 @@
       <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2392,21 +2392,21 @@
         <v>45667</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
@@ -2419,21 +2419,21 @@
         <v>45674</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
@@ -2446,21 +2446,21 @@
         <v>45681</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
@@ -2473,21 +2473,21 @@
         <v>45688</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
@@ -2500,21 +2500,21 @@
         <v>45695</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
@@ -2527,21 +2527,21 @@
         <v>45702</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
@@ -2554,21 +2554,21 @@
         <v>45709</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
@@ -2581,21 +2581,21 @@
         <v>45716</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="J13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2751,18 +2751,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2784,18 +2784,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0CA54FD-799C-4637-92AD-9D4F60478507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEEDC912-A8BF-403A-A187-0254262D8DF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0CA54FD-799C-4637-92AD-9D4F60478507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>